--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/stornquist_zagmail_gonzaga_edu/Documents/Junior year/Second Semester/Engineering Design/CMOS-Differential-Pair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{195995FB-A2C3-4949-ADE8-7E09B52E7F18}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0969B651-F5FA-4D5B-9879-29F0C2C3B0B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -191,8 +191,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +511,7 @@
   <dimension ref="C1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,24 +527,24 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f>0.325</f>
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f>0.13</f>
         <v>0.13</v>
       </c>
@@ -553,45 +553,44 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <f>25</f>
-        <v>25</v>
+      <c r="D7" s="5">
+        <v>3.55</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f>$D$7*$D$3</f>
-        <v>8.125</v>
+        <v>1.1537500000000001</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f>$D$7*$D$3</f>
-        <v>8.125</v>
+        <v>1.1537500000000001</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f>(2*D3)+D7</f>
-        <v>25.65</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="6">
         <f>(2*D3)+D7</f>
-        <v>25.65</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/stornquist_zagmail_gonzaga_edu/Documents/Junior year/Second Semester/Engineering Design/CMOS-Differential-Pair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0969B651-F5FA-4D5B-9879-29F0C2C3B0B9}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA1F44AF-DB1F-42EB-ACDA-ED1879FB4944}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>L</t>
   </si>
@@ -58,6 +58,123 @@
   </si>
   <si>
     <t>All in um</t>
+  </si>
+  <si>
+    <t>Vss</t>
+  </si>
+  <si>
+    <t>VDS5</t>
+  </si>
+  <si>
+    <t>VDS1</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>VSD3</t>
+  </si>
+  <si>
+    <t>VTp</t>
+  </si>
+  <si>
+    <t>VTn</t>
+  </si>
+  <si>
+    <t>Lower Vo(OSR)</t>
+  </si>
+  <si>
+    <t>Upper VCIM (ICMR)</t>
+  </si>
+  <si>
+    <t>Lower VICM (ICMR)</t>
+  </si>
+  <si>
+    <t>Upper Vo(OSR)</t>
+  </si>
+  <si>
+    <t>VICM</t>
+  </si>
+  <si>
+    <t>VSD4</t>
+  </si>
+  <si>
+    <t>Dynamic Range</t>
+  </si>
+  <si>
+    <t>Settling time</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Input step</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>goal(ns)</t>
+  </si>
+  <si>
+    <t>Vfinal</t>
+  </si>
+  <si>
+    <t>Vinitial</t>
+  </si>
+  <si>
+    <t>T(ns)</t>
+  </si>
+  <si>
+    <t>CMRR</t>
+  </si>
+  <si>
+    <t>if gm3 &gt;&gt; g1</t>
+  </si>
+  <si>
+    <t>gm1</t>
+  </si>
+  <si>
+    <t>gm3</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;0.5</t>
+  </si>
+  <si>
+    <t>&lt;0.15</t>
+  </si>
+  <si>
+    <t>PSRR</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>&gt;45 @ DC</t>
+  </si>
+  <si>
+    <t>&gt;35 @ 1 MHz</t>
+  </si>
+  <si>
+    <t>gds5</t>
+  </si>
+  <si>
+    <t>gds1</t>
+  </si>
+  <si>
+    <t>gds3</t>
+  </si>
+  <si>
+    <t>goal (db)</t>
   </si>
 </sst>
 </file>
@@ -65,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,18 +299,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,22 +674,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA44E1-F89B-4508-8260-E08303029B43}">
-  <dimension ref="C1:D11"/>
+  <dimension ref="C1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7">
+        <f>0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
@@ -531,16 +737,84 @@
         <f>0.325</f>
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8">
+        <f>1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7">
+        <f>(0.99*J3)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="11" t="e">
+        <f>Q2/Q3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,16 +822,35 @@
         <f>0.13</f>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="M6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="M7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -565,8 +858,22 @@
         <f>$D$7*$D$3</f>
         <v>1.1537500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="M8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="7" t="e">
+        <f>(2*N3*N4)/(N5*(N6+N7))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,8 +881,13 @@
         <f>$D$7*$D$3</f>
         <v>1.1537500000000001</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -583,14 +895,73 @@
         <f>(2*D3)+D7</f>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="6">
         <f>(2*D3)+D7</f>
         <v>4.2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8">
+        <f>G2+G3+G4+G9</f>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8">
+        <f>G6-G7+G8+G9</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <f>G10-G9</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9">
+        <f>G6-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Desktop\SPRING 2021 Documents\Engineering Design\GitHub\CMOS-Differential-Pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD2FD1-8C89-45EF-9CFB-E57B060FFA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4085E98-1DFB-4B01-9344-AA8D98C0DCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
+    <workbookView xWindow="38280" yWindow="6150" windowWidth="19440" windowHeight="15000" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="L=0.35u" sheetId="1" r:id="rId1"/>
+    <sheet name="L=0.13u" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>L</t>
   </si>
@@ -128,6 +129,51 @@
   </si>
   <si>
     <t>cmosn l=0.13u w=3u ad=0.975u as=0.975u pd=3.65u ps=3.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.13u w=500u ad=162.5u as=162.5u pd=500.65u ps=500.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=25u ad=8.125u as=8.125u pd=25.65u ps=25.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=40u ad=13u as=13u pd=40.65u ps=40.65u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmosn l=0.35u w=60u ad=19.5u as=19.5u pd=60.65u ps=60.65u  </t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=100u ad=32.5u as=32.5u pd=100.65u ps=100.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=500u ad=162.5u as=162.5u pd=500.65u ps=500.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=1u ad=0.325u as=0.325u pd=1.65u ps=1.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=3u ad=0.975u as=0.975u pd=3.65u ps=3.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=5u ad=1.625u as=1.625u pd=5.65u ps=5.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=7u ad=2.275u as=2.275u pd=7.65u ps=7.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=9u ad=2.925u as=2.925u pd=9.65u ps=9.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=10u ad=3.25u as=3.25u pd=10.65u ps=10.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=11u ad=3.575u as=3.575u pd=11.65u ps=11.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=14u ad=4.55u as=4.55u pd=14.65u ps=14.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=17u ad=5.525u as=5.525u pd=17.65u ps=17.65u</t>
   </si>
 </sst>
 </file>
@@ -380,7 +426,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -406,18 +452,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -425,45 +477,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$20</c:f>
+              <c:f>'L=0.35u'!$J$4:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>167.89246181439353</c:v>
+                  <c:v>59.487919151205112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322.70487950918141</c:v>
+                  <c:v>135.46917208177979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.29767702419417</c:v>
+                  <c:v>176.70842516199937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428.68894951555006</c:v>
+                  <c:v>199.53194618845353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.53448091859656</c:v>
+                  <c:v>212.32801452894546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>435.98576881556136</c:v>
+                  <c:v>215.77797947120445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.01134294885912</c:v>
+                  <c:v>218.48397398785292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>378.74500964987863</c:v>
+                  <c:v>221.42850155696135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>350.3236510232615</c:v>
+                  <c:v>220.94885622933791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272.02857209976781</c:v>
+                  <c:v>217.04848966166011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210.96511018124679</c:v>
+                  <c:v>208.71773583814175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145.71483214024693</c:v>
+                  <c:v>183.73066365045804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.00620754343876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.64729236366441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,13 +554,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -525,18 +583,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -547,48 +611,54 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -619,13 +689,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -648,18 +718,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -670,48 +746,54 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -733,13 +815,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -762,18 +844,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -784,48 +872,54 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1120,10 +1214,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1146,18 +1240,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1165,45 +1265,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$15</c:f>
+              <c:f>'L=0.35u'!$J$4:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>167.89246181439353</c:v>
+                  <c:v>59.487919151205112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322.70487950918141</c:v>
+                  <c:v>135.46917208177979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.29767702419417</c:v>
+                  <c:v>176.70842516199937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428.68894951555006</c:v>
+                  <c:v>199.53194618845353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.53448091859656</c:v>
+                  <c:v>212.32801452894546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>435.98576881556136</c:v>
+                  <c:v>215.77797947120445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.01134294885912</c:v>
+                  <c:v>218.48397398785292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>378.74500964987863</c:v>
+                  <c:v>221.42850155696135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>350.3236510232615</c:v>
+                  <c:v>220.94885622933791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272.02857209976781</c:v>
+                  <c:v>217.04848966166011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210.96511018124679</c:v>
+                  <c:v>208.71773583814175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145.71483214024693</c:v>
+                  <c:v>183.73066365045804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.00620754343876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.64729236366441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,13 +1342,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1265,18 +1371,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1287,48 +1399,54 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1348,7 +1466,8 @@
         <c:axId val="1138939471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1447,7 +1566,7 @@
         <c:axId val="1138939887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
+          <c:max val="225"/>
           <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1627,7 +1746,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1653,18 +1772,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1672,45 +1797,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$20</c:f>
+              <c:f>'L=0.35u'!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.434788498657805</c:v>
+                  <c:v>4.4360864393143258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0234258952238706</c:v>
+                  <c:v>6.5539028583347738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8505945195000608</c:v>
+                  <c:v>8.1658237135859224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3745568701197035</c:v>
+                  <c:v>9.5060479365628172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7375189547058296</c:v>
+                  <c:v>10.653688636675637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8865229634427632</c:v>
+                  <c:v>11.168632477805613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0080953164679336</c:v>
+                  <c:v>11.658696584197061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6824545567926705</c:v>
+                  <c:v>12.971792709839564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8795243145133043</c:v>
+                  <c:v>14.109122364580964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2035154432981852</c:v>
+                  <c:v>15.104279030038979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3849407862180758</c:v>
+                  <c:v>16.538647847713293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5113803820237681</c:v>
+                  <c:v>19.692461270145557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.464667759918662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.792889644274872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1874,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$20</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1772,18 +1903,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1794,7 +1931,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$4:$N$20</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$N$4:$N$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1802,40 +1939,46 @@
                       <c:formatCode>0.000</c:formatCode>
                       <c:ptCount val="17"/>
                       <c:pt idx="0">
-                        <c:v>3.434788498657805</c:v>
+                        <c:v>4.4360864393143258</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.0234258952238706</c:v>
+                        <c:v>6.5539028583347738</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.8505945195000608</c:v>
+                        <c:v>8.1658237135859224</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>6.3745568701197035</c:v>
+                        <c:v>9.5060479365628172</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6.7375189547058296</c:v>
+                        <c:v>10.653688636675637</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>6.8865229634427632</c:v>
+                        <c:v>11.168632477805613</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>7.0080953164679336</c:v>
+                        <c:v>11.658696584197061</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7.6824545567926705</c:v>
+                        <c:v>12.971792709839564</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.8795243145133043</c:v>
+                        <c:v>14.109122364580964</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>8.2035154432981852</c:v>
+                        <c:v>15.104279030038979</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>8.3849407862180758</c:v>
+                        <c:v>16.538647847713293</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>8.5113803820237681</c:v>
+                        <c:v>19.692461270145557</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.464667759918662</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25.792889644274872</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2109,7 +2252,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2135,18 +2278,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2154,45 +2303,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$20</c:f>
+              <c:f>'L=0.35u'!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.434788498657805</c:v>
+                  <c:v>4.4360864393143258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0234258952238706</c:v>
+                  <c:v>6.5539028583347738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8505945195000608</c:v>
+                  <c:v>8.1658237135859224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3745568701197035</c:v>
+                  <c:v>9.5060479365628172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7375189547058296</c:v>
+                  <c:v>10.653688636675637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8865229634427632</c:v>
+                  <c:v>11.168632477805613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0080953164679336</c:v>
+                  <c:v>11.658696584197061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6824545567926705</c:v>
+                  <c:v>12.971792709839564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8795243145133043</c:v>
+                  <c:v>14.109122364580964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2035154432981852</c:v>
+                  <c:v>15.104279030038979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3849407862180758</c:v>
+                  <c:v>16.538647847713293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5113803820237681</c:v>
+                  <c:v>19.692461270145557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.464667759918662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.792889644274872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2541,18 +2696,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2560,45 +2721,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$20</c:f>
+              <c:f>'L=0.35u'!$L$4:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>48.88</c:v>
+                  <c:v>13.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.239999999999995</c:v>
+                  <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.42</c:v>
+                  <c:v>21.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.25</c:v>
+                  <c:v>20.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.94</c:v>
+                  <c:v>19.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.31</c:v>
+                  <c:v>19.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.93</c:v>
+                  <c:v>18.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.3</c:v>
+                  <c:v>17.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.46</c:v>
+                  <c:v>15.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.159999999999997</c:v>
+                  <c:v>14.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.16</c:v>
+                  <c:v>12.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.12</c:v>
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,7 +3069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2928,18 +3095,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2947,45 +3120,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$20</c:f>
+              <c:f>'L=0.35u'!$L$4:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>48.88</c:v>
+                  <c:v>13.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.239999999999995</c:v>
+                  <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.42</c:v>
+                  <c:v>21.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.25</c:v>
+                  <c:v>20.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.94</c:v>
+                  <c:v>19.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.31</c:v>
+                  <c:v>19.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.93</c:v>
+                  <c:v>18.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.3</c:v>
+                  <c:v>17.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.46</c:v>
+                  <c:v>15.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.159999999999997</c:v>
+                  <c:v>14.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.16</c:v>
+                  <c:v>12.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.12</c:v>
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,7 +3499,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3346,18 +3525,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -3365,45 +3550,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$20</c:f>
+              <c:f>'L=0.35u'!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>468.53949910191119</c:v>
+                  <c:v>244.65016712818505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1370.4910527349764</c:v>
+                  <c:v>799.18291454534233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1858.0903134480241</c:v>
+                  <c:v>1246.0230404560759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2113.7393125629924</c:v>
+                  <c:v>1567.5473047392086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2223.5833806215646</c:v>
+                  <c:v>1818.4781133941644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2244.4555642452656</c:v>
+                  <c:v>1922.9034537037921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2258.1484728722976</c:v>
+                  <c:v>2007.2777909012079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2107.2204603826617</c:v>
+                  <c:v>2214.1552976425151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1965.626135498489</c:v>
+                  <c:v>2326.5942779194011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1579.9150392247975</c:v>
+                  <c:v>2406.2626922755098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1268.4738421390705</c:v>
+                  <c:v>2480.4664042000395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>896.24835422710271</c:v>
+                  <c:v>2464.1176787333134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2305.3242055228534</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1974.1877733727988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,13 +3627,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3465,18 +3656,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3487,48 +3684,54 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3559,13 +3762,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3588,18 +3791,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3610,48 +3819,54 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3673,13 +3888,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3702,18 +3917,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3724,48 +3945,54 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4062,10 +4289,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:f>'L=0.35u'!$I$4:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4088,18 +4315,24 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4107,45 +4340,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$20</c:f>
+              <c:f>'L=0.35u'!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>468.53949910191119</c:v>
+                  <c:v>244.65016712818505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1370.4910527349764</c:v>
+                  <c:v>799.18291454534233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1858.0903134480241</c:v>
+                  <c:v>1246.0230404560759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2113.7393125629924</c:v>
+                  <c:v>1567.5473047392086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2223.5833806215646</c:v>
+                  <c:v>1818.4781133941644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2244.4555642452656</c:v>
+                  <c:v>1922.9034537037921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2258.1484728722976</c:v>
+                  <c:v>2007.2777909012079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2107.2204603826617</c:v>
+                  <c:v>2214.1552976425151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1965.626135498489</c:v>
+                  <c:v>2326.5942779194011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1579.9150392247975</c:v>
+                  <c:v>2406.2626922755098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1268.4738421390705</c:v>
+                  <c:v>2480.4664042000395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>896.24835422710271</c:v>
+                  <c:v>2464.1176787333134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2305.3242055228534</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1974.1877733727988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,13 +4417,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -4207,18 +4446,24 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>20</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4229,48 +4474,54 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$15</c15:sqref>
+                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="14"/>
                       <c:pt idx="0">
-                        <c:v>167.89246181439353</c:v>
+                        <c:v>59.487919151205112</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>322.70487950918141</c:v>
+                        <c:v>135.46917208177979</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>400.29767702419417</c:v>
+                        <c:v>176.70842516199937</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>428.68894951555006</c:v>
+                        <c:v>199.53194618845353</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>437.53448091859656</c:v>
+                        <c:v>212.32801452894546</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>435.98576881556136</c:v>
+                        <c:v>215.77797947120445</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>434.01134294885912</c:v>
+                        <c:v>218.48397398785292</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>378.74500964987863</c:v>
+                        <c:v>221.42850155696135</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>350.3236510232615</c:v>
+                        <c:v>220.94885622933791</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>272.02857209976781</c:v>
+                        <c:v>217.04848966166011</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>210.96511018124679</c:v>
+                        <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>145.71483214024693</c:v>
+                        <c:v>183.73066365045804</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>155.00620754343876</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5686,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA44E1-F89B-4508-8260-E08303029B43}">
   <dimension ref="C1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:O18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,30 +5997,30 @@
       <c r="D4" s="5"/>
       <c r="H4">
         <f>K4*N4</f>
-        <v>468.53949910191119</v>
+        <v>244.65016712818505</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J10" si="0">L4*N4</f>
-        <v>167.89246181439353</v>
+        <f t="shared" ref="J4:J12" si="0">L4*N4</f>
+        <v>59.487919151205112</v>
       </c>
       <c r="K4">
-        <v>136.41</v>
+        <v>55.15</v>
       </c>
       <c r="L4">
-        <v>48.88</v>
+        <v>13.41</v>
       </c>
       <c r="M4">
-        <v>10.718</v>
+        <v>12.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N10" si="1">10^(M4/20)</f>
-        <v>3.434788498657805</v>
+        <f t="shared" ref="N4:N12" si="1">10^(M4/20)</f>
+        <v>4.4360864393143258</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
@@ -5777,30 +6028,30 @@
       <c r="D5" s="5"/>
       <c r="H5">
         <f>K5*N5</f>
-        <v>1370.4910527349764</v>
+        <v>799.18291454534233</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>322.70487950918141</v>
+        <v>135.46917208177979</v>
       </c>
       <c r="K5">
-        <v>272.82</v>
+        <v>121.94</v>
       </c>
       <c r="L5">
-        <v>64.239999999999995</v>
+        <v>20.67</v>
       </c>
       <c r="M5">
-        <v>14.02</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
-        <v>5.0234258952238706</v>
+        <v>6.5539028583347738</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
@@ -5808,35 +6059,34 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>0.13</f>
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H8" si="2">K6*N6</f>
-        <v>1858.0903134480241</v>
+        <v>1246.0230404560759</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>400.29767702419417</v>
+        <v>176.70842516199937</v>
       </c>
       <c r="K6">
-        <v>317.58999999999997</v>
+        <v>152.59</v>
       </c>
       <c r="L6">
-        <v>68.42</v>
+        <v>21.64</v>
       </c>
       <c r="M6">
-        <v>15.343999999999999</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>5.8505945195000608</v>
+        <v>8.1658237135859224</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
@@ -5844,34 +6094,34 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>2113.7393125629924</v>
+        <v>1567.5473047392086</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>428.68894951555006</v>
+        <v>199.53194618845353</v>
       </c>
       <c r="K7">
-        <v>331.59</v>
+        <v>164.9</v>
       </c>
       <c r="L7">
-        <v>67.25</v>
+        <v>20.99</v>
       </c>
       <c r="M7">
-        <v>16.088999999999999</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="1"/>
-        <v>6.3745568701197035</v>
+        <v>9.5060479365628172</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
@@ -5880,34 +6130,34 @@
       </c>
       <c r="D8" s="5">
         <f>$D$7*$D$3</f>
-        <v>3.5750000000000002</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>2223.5833806215646</v>
+        <v>1818.4781133941644</v>
       </c>
       <c r="I8">
         <v>9</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>437.53448091859656</v>
+        <v>212.32801452894546</v>
       </c>
       <c r="K8">
-        <v>330.03</v>
+        <v>170.69</v>
       </c>
       <c r="L8">
-        <v>64.94</v>
+        <v>19.93</v>
       </c>
       <c r="M8">
-        <v>16.57</v>
+        <v>20.55</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="1"/>
-        <v>6.7375189547058296</v>
+        <v>10.653688636675637</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
@@ -5916,40 +6166,34 @@
       </c>
       <c r="D9" s="5">
         <f>$D$7*$D$3</f>
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="F9">
-        <v>106.22</v>
-      </c>
-      <c r="G9">
-        <v>16.760000000000002</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H15" si="3">K9*N9</f>
-        <v>2244.4555642452656</v>
+        <f t="shared" ref="H9:H12" si="3">K9*N9</f>
+        <v>1922.9034537037921</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>435.98576881556136</v>
+        <v>215.77797947120445</v>
       </c>
       <c r="K9">
-        <v>325.92</v>
+        <v>172.17</v>
       </c>
       <c r="L9">
-        <v>63.31</v>
+        <v>19.32</v>
       </c>
       <c r="M9">
-        <v>16.760000000000002</v>
+        <v>20.96</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="1"/>
-        <v>6.8865229634427632</v>
+        <v>11.168632477805613</v>
       </c>
       <c r="O9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -5958,31 +6202,34 @@
       </c>
       <c r="D10" s="5">
         <f>(2*D3)+D7</f>
-        <v>11.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>2258.1484728722976</v>
+        <v>2007.2777909012079</v>
       </c>
       <c r="I10">
         <v>11</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>434.01134294885912</v>
+        <v>218.48397398785292</v>
       </c>
       <c r="K10">
-        <v>322.22000000000003</v>
+        <v>172.17</v>
       </c>
       <c r="L10">
-        <v>61.93</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="M10">
-        <v>16.911999999999999</v>
+        <v>21.332999999999998</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>7.0080953164679336</v>
+        <v>11.658696584197061</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5991,180 +6238,214 @@
       </c>
       <c r="D11" s="6">
         <f>(2*D3)+D7</f>
-        <v>11.65</v>
-      </c>
-      <c r="F11">
-        <v>121.94</v>
-      </c>
-      <c r="G11">
-        <v>17.71</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>2107.2204603826617</v>
+        <v>2214.1552976425151</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J15" si="4">L11*N11</f>
-        <v>378.74500964987863</v>
+        <f t="shared" si="0"/>
+        <v>221.42850155696135</v>
       </c>
       <c r="K11">
-        <v>274.29000000000002</v>
+        <v>170.69</v>
       </c>
       <c r="L11">
-        <v>49.3</v>
+        <v>17.07</v>
       </c>
       <c r="M11">
-        <v>17.71</v>
+        <v>22.26</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" ref="N11:N15" si="5">10^(M11/20)</f>
-        <v>7.6824545567926705</v>
+        <f t="shared" si="1"/>
+        <v>12.971792709839564</v>
       </c>
       <c r="O11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F12">
-        <v>121.94</v>
-      </c>
-      <c r="G12">
-        <v>17.93</v>
-      </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>1965.626135498489</v>
+        <v>2326.5942779194011</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>350.3236510232615</v>
+        <f t="shared" si="0"/>
+        <v>220.94885622933791</v>
       </c>
       <c r="K12">
-        <v>249.46</v>
+        <v>164.9</v>
       </c>
       <c r="L12">
-        <v>44.46</v>
+        <v>15.66</v>
       </c>
       <c r="M12">
-        <v>17.93</v>
+        <v>22.99</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="5"/>
-        <v>7.8795243145133043</v>
+        <f t="shared" si="1"/>
+        <v>14.109122364580964</v>
       </c>
       <c r="O12" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <v>114.79</v>
-      </c>
-      <c r="G13">
-        <v>18.28</v>
-      </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>1579.9150392247975</v>
+        <f>K13*N13</f>
+        <v>2406.2626922755098</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>272.02857209976781</v>
+        <f t="shared" ref="J13:J17" si="4">L13*N13</f>
+        <v>217.04848966166011</v>
       </c>
       <c r="K13">
-        <v>192.59</v>
+        <v>159.31</v>
       </c>
       <c r="L13">
-        <v>33.159999999999997</v>
+        <v>14.37</v>
       </c>
       <c r="M13">
-        <v>18.28</v>
+        <v>23.582000000000001</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="5"/>
-        <v>8.2035154432981852</v>
+        <f t="shared" ref="N13:N17" si="5">10^(M13/20)</f>
+        <v>15.104279030038979</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <v>103.5</v>
-      </c>
-      <c r="G14">
-        <v>18.47</v>
-      </c>
       <c r="H14">
-        <f t="shared" si="3"/>
-        <v>1268.4738421390705</v>
+        <f>K14*N14</f>
+        <v>2480.4664042000395</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>210.96511018124679</v>
+        <v>208.71773583814175</v>
       </c>
       <c r="K14">
-        <v>151.28</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="L14">
-        <v>25.16</v>
+        <v>12.62</v>
       </c>
       <c r="M14">
-        <v>18.47</v>
+        <v>24.37</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="5"/>
-        <v>8.3849407862180758</v>
+        <v>16.538647847713293</v>
       </c>
       <c r="O14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F15">
-        <v>81.3</v>
-      </c>
-      <c r="G15">
-        <v>18.600000000000001</v>
-      </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>896.24835422710271</v>
+        <f>K15*N15</f>
+        <v>2464.1176787333134</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>145.71483214024693</v>
+        <v>183.73066365045804</v>
       </c>
       <c r="K15">
-        <v>105.3</v>
+        <v>125.13</v>
       </c>
       <c r="L15">
-        <v>17.12</v>
+        <v>9.33</v>
       </c>
       <c r="M15">
-        <v>18.600000000000001</v>
+        <v>25.885999999999999</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="5"/>
-        <v>8.5113803820237681</v>
+        <v>19.692461270145557</v>
       </c>
       <c r="O15" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>K16*N16</f>
+        <v>2305.3242055228534</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>155.00620754343876</v>
+      </c>
+      <c r="K16">
+        <v>102.62</v>
+      </c>
+      <c r="L16">
+        <v>6.9</v>
+      </c>
+      <c r="M16">
+        <v>27.03</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="5"/>
+        <v>22.464667759918662</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>K17*N17</f>
+        <v>1974.1877733727988</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>118.64729236366441</v>
+      </c>
+      <c r="K17">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="L17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M17">
+        <v>28.23</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="5"/>
+        <v>25.792889644274872</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="N18" s="7"/>
+      <c r="O18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.3">
@@ -6188,4 +6469,440 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7EF53B-B3C0-4AB8-BB15-96913B7377C7}">
+  <dimension ref="B2:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>G4*J4</f>
+        <v>468.53949910191119</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F15" si="0">H4*J4</f>
+        <v>167.89246181439353</v>
+      </c>
+      <c r="G4">
+        <v>136.41</v>
+      </c>
+      <c r="H4">
+        <v>48.88</v>
+      </c>
+      <c r="I4">
+        <v>10.718</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J15" si="1">10^(I4/20)</f>
+        <v>3.434788498657805</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>G5*J5</f>
+        <v>1370.4910527349764</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>322.70487950918141</v>
+      </c>
+      <c r="G5">
+        <v>272.82</v>
+      </c>
+      <c r="H5">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="I5">
+        <v>14.02</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0234258952238706</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" ref="D6:D15" si="2">G6*J6</f>
+        <v>1858.0903134480241</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>400.29767702419417</v>
+      </c>
+      <c r="G6">
+        <v>317.58999999999997</v>
+      </c>
+      <c r="H6">
+        <v>68.42</v>
+      </c>
+      <c r="I6">
+        <v>15.343999999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>5.8505945195000608</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2113.7393125629924</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>428.68894951555006</v>
+      </c>
+      <c r="G7">
+        <v>331.59</v>
+      </c>
+      <c r="H7">
+        <v>67.25</v>
+      </c>
+      <c r="I7">
+        <v>16.088999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3745568701197035</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>2223.5833806215646</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>437.53448091859656</v>
+      </c>
+      <c r="G8">
+        <v>330.03</v>
+      </c>
+      <c r="H8">
+        <v>64.94</v>
+      </c>
+      <c r="I8">
+        <v>16.57</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>6.7375189547058296</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>106.22</v>
+      </c>
+      <c r="C9">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2244.4555642452656</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>435.98576881556136</v>
+      </c>
+      <c r="G9">
+        <v>325.92</v>
+      </c>
+      <c r="H9">
+        <v>63.31</v>
+      </c>
+      <c r="I9">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>6.8865229634427632</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>2258.1484728722976</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>434.01134294885912</v>
+      </c>
+      <c r="G10">
+        <v>322.22000000000003</v>
+      </c>
+      <c r="H10">
+        <v>61.93</v>
+      </c>
+      <c r="I10">
+        <v>16.911999999999999</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>7.0080953164679336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>121.94</v>
+      </c>
+      <c r="C11">
+        <v>17.71</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>2107.2204603826617</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>378.74500964987863</v>
+      </c>
+      <c r="G11">
+        <v>274.29000000000002</v>
+      </c>
+      <c r="H11">
+        <v>49.3</v>
+      </c>
+      <c r="I11">
+        <v>17.71</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>7.6824545567926705</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>121.94</v>
+      </c>
+      <c r="C12">
+        <v>17.93</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1965.626135498489</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>350.3236510232615</v>
+      </c>
+      <c r="G12">
+        <v>249.46</v>
+      </c>
+      <c r="H12">
+        <v>44.46</v>
+      </c>
+      <c r="I12">
+        <v>17.93</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>7.8795243145133043</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>114.79</v>
+      </c>
+      <c r="C13">
+        <v>18.28</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1579.9150392247975</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>272.02857209976781</v>
+      </c>
+      <c r="G13">
+        <v>192.59</v>
+      </c>
+      <c r="H13">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="I13">
+        <v>18.28</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>8.2035154432981852</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>103.5</v>
+      </c>
+      <c r="C14">
+        <v>18.47</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1268.4738421390705</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>210.96511018124679</v>
+      </c>
+      <c r="G14">
+        <v>151.28</v>
+      </c>
+      <c r="H14">
+        <v>25.16</v>
+      </c>
+      <c r="I14">
+        <v>18.47</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3849407862180758</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>81.3</v>
+      </c>
+      <c r="C15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>896.24835422710271</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>145.71483214024693</v>
+      </c>
+      <c r="G15">
+        <v>105.3</v>
+      </c>
+      <c r="H15">
+        <v>17.12</v>
+      </c>
+      <c r="I15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>8.5113803820237681</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="7"/>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/stornquist_zagmail_gonzaga_edu/Documents/Junior year/Second Semester/Engineering Design/CMOS-Differential-Pair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA1F44AF-DB1F-42EB-ACDA-ED1879FB4944}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{74CBE484-B1AF-45B1-9A96-B49E9F68C9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE52FDEF-56E1-4A6E-A6E5-201CBE63C868}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,11 +677,12 @@
   <dimension ref="C1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -819,8 +820,8 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>0.13</f>
-        <v>0.13</v>
+        <f>0.44</f>
+        <v>0.44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -836,7 +837,8 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>3.55</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -856,7 +858,7 @@
       </c>
       <c r="D8" s="5">
         <f>$D$7*$D$3</f>
-        <v>1.1537500000000001</v>
+        <v>325</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -879,7 +881,7 @@
       </c>
       <c r="D9" s="5">
         <f>$D$7*$D$3</f>
-        <v>1.1537500000000001</v>
+        <v>325</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -892,8 +894,8 @@
         <v>4</v>
       </c>
       <c r="D10" s="5">
-        <f>(2*D3)+D7</f>
-        <v>4.2</v>
+        <f>(2*D3)+(2*D7)</f>
+        <v>2000.65</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>19</v>
@@ -905,8 +907,8 @@
         <v>5</v>
       </c>
       <c r="D11" s="6">
-        <f>(2*D3)+D7</f>
-        <v>4.2</v>
+        <f>(2*D3)+(2*D7)</f>
+        <v>2000.65</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>20</v>

--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Desktop\SPRING 2021 Documents\Engineering Design\GitHub\CMOS-Differential-Pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4085E98-1DFB-4B01-9344-AA8D98C0DCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572BBCA7-02F3-4A7A-980D-454E9251CF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6150" windowWidth="19440" windowHeight="15000" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
+    <workbookView xWindow="38280" yWindow="6150" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="L=0.35u" sheetId="1" r:id="rId1"/>
-    <sheet name="L=0.13u" sheetId="2" r:id="rId2"/>
+    <sheet name="L=0.35u, Lp=0.13" sheetId="1" r:id="rId1"/>
+    <sheet name="L=0.36u, Lp=0.18u, Wp=30u" sheetId="3" r:id="rId2"/>
+    <sheet name="L=0.13u" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>L</t>
   </si>
@@ -146,9 +147,6 @@
     <t>cmosn l=0.35u w=100u ad=32.5u as=32.5u pd=100.65u ps=100.65u</t>
   </si>
   <si>
-    <t>cmosn l=0.35u w=500u ad=162.5u as=162.5u pd=500.65u ps=500.65u</t>
-  </si>
-  <si>
     <t>cmosn l=0.35u w=1u ad=0.325u as=0.325u pd=1.65u ps=1.65u</t>
   </si>
   <si>
@@ -174,6 +172,112 @@
   </si>
   <si>
     <t>cmosn l=0.35u w=17u ad=5.525u as=5.525u pd=17.65u ps=17.65u</t>
+  </si>
+  <si>
+    <t>cmosn l=0.35u w=30u ad=9.75u as=9.75u pd=30.65u ps=30.65u</t>
+  </si>
+  <si>
+    <t>L=0.3</t>
+  </si>
+  <si>
+    <t>L=0.36</t>
+  </si>
+  <si>
+    <t>L=0.35</t>
+  </si>
+  <si>
+    <t>Wp=7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cmosp l=0.18u w=7u ad=2.275u as=2.275u pd=7.65u ps=7.65u  </t>
+  </si>
+  <si>
+    <t>cmosp l=0.18u w=8u ad=2.6u as=2.6u pd=8.65u ps=8.65u</t>
+  </si>
+  <si>
+    <t>Wp=8</t>
+  </si>
+  <si>
+    <t>Wp=9</t>
+  </si>
+  <si>
+    <t>cmosp l=0.18u w=9u ad=2.925u as=2.925u pd=9.65u ps=9.65u</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cmosp l=0.18u w=8u ad=2.6u as=2.6u pd=8.65u ps=8.65u  </t>
+  </si>
+  <si>
+    <t>cmosn l=0.36u w=25u ad=8.125u as=8.125u pd=25.65u ps=25.65u</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cmosp l=0.2u w=8u ad=2.6u as=2.6u pd=8.65u ps=8.65u  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cmosp l=0.21u w=8u ad=2.6u as=2.6u pd=8.65u ps=8.65u  </t>
+  </si>
+  <si>
+    <t>cmosn l=0.36u w=26u ad=9.75u as=9.75u pd=30.65u ps=30.65u</t>
+  </si>
+  <si>
+    <t>GBW</t>
+  </si>
+  <si>
+    <t>Unity BW</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (V/V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dB)</t>
+    </r>
+  </si>
+  <si>
+    <t>cmosn l=0.36u w=25u ad=8.125u as=8.125u pd=50.65u ps=50.65u</t>
   </si>
 </sst>
 </file>
@@ -201,12 +305,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -320,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -330,6 +440,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -464,12 +578,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -477,7 +594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$J$4:$J$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$J$4:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -515,12 +632,15 @@
                   <c:v>208.71773583814175</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>200.12857344441082</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>183.73066365045804</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>155.00620754343876</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>118.64729236366441</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,13 +674,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -595,12 +715,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -611,13 +734,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -652,12 +775,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -689,13 +815,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -730,12 +856,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -746,13 +875,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -787,12 +916,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -815,13 +947,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -856,12 +988,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -872,13 +1007,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -913,12 +1048,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1214,10 +1352,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$17</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1252,12 +1390,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1265,10 +1406,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$J$4:$J$17</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>59.487919151205112</c:v>
                 </c:pt>
@@ -1303,12 +1444,15 @@
                   <c:v>208.71773583814175</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>200.12857344441082</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>183.73066365045804</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>155.00620754343876</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>118.64729236366441</c:v>
                 </c:pt>
               </c:numCache>
@@ -1342,13 +1486,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1383,12 +1527,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1399,13 +1546,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -1440,12 +1587,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1746,7 +1896,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1784,12 +1934,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1797,7 +1950,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$N$4:$N$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1835,12 +1988,15 @@
                   <c:v>16.538647847713293</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>17.741894808901669</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19.692461270145557</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>22.464667759918662</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>25.792889644274872</c:v>
                 </c:pt>
               </c:numCache>
@@ -1874,7 +2030,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$20</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1915,12 +2071,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1931,7 +2090,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$N$4:$N$20</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$N$4:$N$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1972,12 +2131,15 @@
                         <c:v>16.538647847713293</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>17.741894808901669</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>19.692461270145557</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>22.464667759918662</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>25.792889644274872</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2252,7 +2414,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2290,12 +2452,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2303,7 +2468,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$N$4:$N$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$N$4:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2341,12 +2506,15 @@
                   <c:v>16.538647847713293</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>17.741894808901669</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19.692461270145557</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>22.464667759918662</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>25.792889644274872</c:v>
                 </c:pt>
               </c:numCache>
@@ -2670,7 +2838,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2708,12 +2876,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2721,7 +2892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$L$4:$L$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$L$4:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2759,12 +2930,15 @@
                   <c:v>12.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9.33</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6.9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -3069,7 +3243,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3107,12 +3281,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -3120,7 +3297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$L$4:$L$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$L$4:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3158,12 +3335,15 @@
                   <c:v>12.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>9.33</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6.9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -3499,7 +3679,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3537,12 +3717,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -3550,7 +3733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$H$4:$H$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3588,12 +3771,15 @@
                   <c:v>2480.4664042000395</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2505.1555470169155</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2464.1176787333134</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2305.3242055228534</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1974.1877733727988</c:v>
                 </c:pt>
               </c:numCache>
@@ -3627,13 +3813,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3668,12 +3854,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3684,13 +3873,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -3725,12 +3914,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3762,13 +3954,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3803,12 +3995,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3819,13 +4014,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -3860,12 +4055,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3888,13 +4086,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3929,12 +4127,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3945,13 +4146,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -3986,12 +4187,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4289,10 +4493,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$I$4:$I$17</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4327,12 +4531,15 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4340,7 +4547,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'L=0.35u'!$H$4:$H$20</c:f>
+              <c:f>'L=0.35u, Lp=0.13'!$H$4:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4378,12 +4585,15 @@
                   <c:v>2480.4664042000395</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2505.1555470169155</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2464.1176787333134</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2305.3242055228534</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1974.1877733727988</c:v>
                 </c:pt>
               </c:numCache>
@@ -4417,13 +4627,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$I$4:$I$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$I$4:$I$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -4458,12 +4668,15 @@
                         <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>40</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4474,13 +4687,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'L=0.35u'!$J$4:$J$17</c15:sqref>
+                          <c15:sqref>'L=0.35u, Lp=0.13'!$J$4:$J$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>59.487919151205112</c:v>
                       </c:pt>
@@ -4515,12 +4728,15 @@
                         <c:v>208.71773583814175</c:v>
                       </c:pt>
                       <c:pt idx="11">
+                        <c:v>200.12857344441082</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>183.73066365045804</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="13">
                         <c:v>155.00620754343876</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>118.64729236366441</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4541,7 +4757,7 @@
         <c:axId val="1138939471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5935,10 +6151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA44E1-F89B-4508-8260-E08303029B43}">
-  <dimension ref="C1:T20"/>
+  <dimension ref="C1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6020,7 +6236,7 @@
         <v>4.4360864393143258</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
@@ -6051,7 +6267,7 @@
         <v>6.5539028583347738</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
@@ -6059,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H8" si="2">K6*N6</f>
@@ -6086,7 +6302,7 @@
         <v>8.1658237135859224</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
@@ -6094,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
@@ -6121,7 +6337,7 @@
         <v>9.5060479365628172</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
@@ -6130,7 +6346,7 @@
       </c>
       <c r="D8" s="5">
         <f>$D$7*$D$3</f>
-        <v>5.5250000000000004</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
@@ -6157,7 +6373,7 @@
         <v>10.653688636675637</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
@@ -6166,7 +6382,7 @@
       </c>
       <c r="D9" s="5">
         <f>$D$7*$D$3</f>
-        <v>5.5250000000000004</v>
+        <v>2.6</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H12" si="3">K9*N9</f>
@@ -6193,7 +6409,7 @@
         <v>11.168632477805613</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -6202,7 +6418,7 @@
       </c>
       <c r="D10" s="5">
         <f>(2*D3)+D7</f>
-        <v>17.649999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -6229,7 +6445,7 @@
         <v>11.658696584197061</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6238,7 +6454,7 @@
       </c>
       <c r="D11" s="6">
         <f>(2*D3)+D7</f>
-        <v>17.649999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -6265,7 +6481,7 @@
         <v>12.971792709839564</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
@@ -6294,10 +6510,14 @@
         <v>14.109122364580964</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f>E14*F14</f>
+        <v>5312.2856270116663</v>
+      </c>
       <c r="H13">
         <f>K13*N13</f>
         <v>2406.2626922755098</v>
@@ -6327,6 +6547,19 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>32.75</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14" si="6">10^(D14/20)</f>
+        <v>43.401026364474397</v>
+      </c>
+      <c r="F14">
+        <v>122.4</v>
+      </c>
       <c r="H14">
         <f>K14*N14</f>
         <v>2480.4664042000395</v>
@@ -6356,99 +6589,175 @@
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f>E16*F16</f>
+        <v>5407.6804947315559</v>
+      </c>
       <c r="H15">
         <f>K15*N15</f>
-        <v>2464.1176787333134</v>
+        <v>2505.1555470169155</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>183.73066365045804</v>
+        <v>200.12857344441082</v>
       </c>
       <c r="K15">
-        <v>125.13</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="L15">
-        <v>9.33</v>
+        <v>11.28</v>
       </c>
       <c r="M15">
-        <v>25.885999999999999</v>
+        <v>24.98</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="5"/>
-        <v>19.692461270145557</v>
+        <v>17.741894808901669</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>32.86</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" ref="E16" si="7">10^(D16/20)</f>
+        <v>43.954161543782462</v>
+      </c>
+      <c r="F16">
+        <v>123.03</v>
+      </c>
       <c r="H16">
         <f>K16*N16</f>
-        <v>2305.3242055228534</v>
+        <v>2464.1176787333134</v>
       </c>
       <c r="I16">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>155.00620754343876</v>
+        <f>L16*N16</f>
+        <v>183.73066365045804</v>
       </c>
       <c r="K16">
-        <v>102.62</v>
+        <v>125.13</v>
       </c>
       <c r="L16">
-        <v>6.9</v>
+        <v>9.33</v>
       </c>
       <c r="M16">
-        <v>27.03</v>
+        <v>25.885999999999999</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="5"/>
-        <v>22.464667759918662</v>
+        <f>10^(M16/20)</f>
+        <v>19.692461270145557</v>
       </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f>E18*F18</f>
+        <v>4947.7199687838011</v>
+      </c>
       <c r="H17">
         <f>K17*N17</f>
+        <v>2305.3242055228534</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <f>L17*N17</f>
+        <v>155.00620754343876</v>
+      </c>
+      <c r="K17">
+        <v>102.62</v>
+      </c>
+      <c r="L17">
+        <v>6.9</v>
+      </c>
+      <c r="M17">
+        <v>27.03</v>
+      </c>
+      <c r="N17" s="7">
+        <f>10^(M17/20)</f>
+        <v>22.464667759918662</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18" si="8">10^(D18/20)</f>
+        <v>40.225365599868304</v>
+      </c>
+      <c r="F18">
+        <v>123</v>
+      </c>
+      <c r="H18">
+        <f>K18*N18</f>
         <v>1974.1877733727988</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>100</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
+      <c r="J18">
+        <f>L18*N18</f>
         <v>118.64729236366441</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>76.540000000000006</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>28.23</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" si="5"/>
+      <c r="N18" s="7">
+        <f>10^(M18/20)</f>
         <v>25.792889644274872</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="N18" s="7"/>
-      <c r="O18" t="s">
-        <v>32</v>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f>E20*F20</f>
+        <v>4724.4309203884432</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>31.09</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20" si="9">10^(D20/20)</f>
+        <v>35.850894827655509</v>
+      </c>
+      <c r="F20">
+        <v>131.78</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -6464,6 +6773,30 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f>E22*F22</f>
+        <v>4936.1730613759173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>32.22</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ref="E22" si="10">10^(D22/20)</f>
+        <v>40.831938633269232</v>
+      </c>
+      <c r="F22">
+        <v>120.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6472,6 +6805,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D7D8A-31F7-48C8-AA4A-FD51705EA762}">
+  <dimension ref="B2:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <f>0.325</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <f>$C$8*$C$4</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <f>$C$8*$C$4</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <f>(2*C4)+2*C8</f>
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <f>(2*C4)+2*C8</f>
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>D15*E15</f>
+        <v>5312.2856270116663</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>32.75</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15" si="0">10^(C15/20)</f>
+        <v>43.401026364474397</v>
+      </c>
+      <c r="E15">
+        <v>122.4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>D17*E17</f>
+        <v>5408.5595779624318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>32.86</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17" si="1">10^(C17/20)</f>
+        <v>43.954161543782462</v>
+      </c>
+      <c r="E17">
+        <v>123.05</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>D19*E19</f>
+        <v>5386.7721587084025</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>32.82</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19" si="2">10^(C19/20)</f>
+        <v>43.752210515825233</v>
+      </c>
+      <c r="E19">
+        <v>123.12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f>D22*E22</f>
+        <v>4947.7199687838011</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22" si="3">10^(C22/20)</f>
+        <v>40.225365599868304</v>
+      </c>
+      <c r="E22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>D24*E24</f>
+        <v>8933.671843019265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24" si="4">10^(C24/20)</f>
+        <v>44.668359215096324</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>D26*E26</f>
+        <v>4936.1730613759173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>32.22</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ref="D26" si="5">10^(C26/20)</f>
+        <v>40.831938633269232</v>
+      </c>
+      <c r="E26">
+        <v>120.89</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="8">
+        <v>32.51</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" ref="N30" si="6">10^(M30/20)</f>
+        <v>42.218227905113338</v>
+      </c>
+      <c r="O30" s="8">
+        <v>130.12</v>
+      </c>
+      <c r="P30" s="8">
+        <f>N30*O30</f>
+        <v>5493.4358150133476</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>32.51</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31" si="7">10^(B31/20)</f>
+        <v>42.218227905113338</v>
+      </c>
+      <c r="D31" s="8">
+        <v>130.12</v>
+      </c>
+      <c r="E31" s="8">
+        <f>C31*D31</f>
+        <v>5493.4358150133476</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" ref="C33" si="8">10^(B33/20)</f>
+        <v>47.863009232263877</v>
+      </c>
+      <c r="D33" s="8">
+        <v>120.89</v>
+      </c>
+      <c r="E33" s="8">
+        <f>C33*D33</f>
+        <v>5786.15918608838</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="11">
+        <v>33.78</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" ref="C35" si="9">10^(B35/20)</f>
+        <v>48.865235934283383</v>
+      </c>
+      <c r="D35" s="11">
+        <v>123.41</v>
+      </c>
+      <c r="E35" s="11">
+        <f>C35*D35</f>
+        <v>6030.4587666499119</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>33.76</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37" si="10">10^(B37/20)</f>
+        <v>48.752849010338643</v>
+      </c>
+      <c r="D37">
+        <v>122.85</v>
+      </c>
+      <c r="E37">
+        <f>C37*D37</f>
+        <v>5989.2875009201016</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7EF53B-B3C0-4AB8-BB15-96913B7377C7}">
   <dimension ref="B2:K16"/>
   <sheetViews>

--- a/PSPDASADCalculator.xlsx
+++ b/PSPDASADCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/CMOS-Differential-Pair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39525AD0-C42A-1540-90B9-422547508CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F808B-10E7-F34D-A803-9E08167BB3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F225980E-4B32-482E-82ED-67A38ECE05C3}"/>
   </bookViews>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>9.1524999999999999</v>
+        <v>9.6909299999999998</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="D8" s="5">
         <f>$D$7*$D$3</f>
-        <v>2.9745625000000002</v>
+        <v>3.1495522500000002</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="D9" s="5">
         <f>$D$7*$D$3</f>
-        <v>2.9745625000000002</v>
+        <v>3.1495522500000002</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="D10" s="5">
         <f>(2*D3)+(2*D7)</f>
-        <v>18.954999999999998</v>
+        <v>20.031859999999998</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>19</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="D11" s="6">
         <f>(2*D3)+(2*D7)</f>
-        <v>18.954999999999998</v>
+        <v>20.031859999999998</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>20</v>
